--- a/data/sensitivity_analisys_results_v2.xlsx
+++ b/data/sensitivity_analisys_results_v2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="83">
   <si>
     <t>friction_coeff</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>ref_numer</t>
+  </si>
+  <si>
+    <t>force_fraction</t>
+  </si>
+  <si>
+    <t>tangential_stiffness</t>
   </si>
   <si>
     <t>jsc faster</t>
@@ -265,7 +271,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,13 +281,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -455,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -515,7 +527,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,8 +556,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -571,6 +583,9 @@
     <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -591,6 +606,9 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -906,7 +924,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="46" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="47" width="6.719285714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="21" width="9.862142857142858" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="21" width="13.862142857142858" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="21" width="10.005" customWidth="1" bestFit="1"/>
@@ -914,11 +932,11 @@
     <col min="6" max="6" style="21" width="13.290714285714287" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="22" width="18.719285714285714" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="23" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="46" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="47" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="48" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="49" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="24" t="s">
         <v>73</v>
       </c>
@@ -929,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>3</v>
@@ -938,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="H1" s="28" t="s">
         <v>6</v>
@@ -946,7 +964,7 @@
       <c r="I1" s="29"/>
       <c r="J1" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="31" t="s">
         <v>72</v>
       </c>
@@ -974,7 +992,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="31" t="s">
         <v>71</v>
       </c>
@@ -1002,7 +1020,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="31" t="s">
         <v>30</v>
       </c>
@@ -1030,7 +1048,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="31" t="s">
         <v>63</v>
       </c>
@@ -1058,7 +1076,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="31" t="s">
         <v>49</v>
       </c>
@@ -1088,7 +1106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="31" t="s">
         <v>61</v>
       </c>
@@ -1114,13 +1132,13 @@
         <v>37.4</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" s="36">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="31" t="s">
         <v>13</v>
       </c>
@@ -1146,11 +1164,11 @@
         <v>37.87</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="31" t="s">
         <v>62</v>
       </c>
@@ -1176,11 +1194,11 @@
         <v>38.47</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="31" t="s">
         <v>41</v>
       </c>
@@ -1208,7 +1226,7 @@
       <c r="I10" s="29"/>
       <c r="J10" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="31" t="s">
         <v>32</v>
       </c>
@@ -1236,7 +1254,7 @@
       <c r="I11" s="29"/>
       <c r="J11" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="31" t="s">
         <v>31</v>
       </c>
@@ -1264,7 +1282,7 @@
       <c r="I12" s="38"/>
       <c r="J12" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="31" t="s">
         <v>33</v>
       </c>
@@ -1292,7 +1310,7 @@
       <c r="I13" s="38"/>
       <c r="J13" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="31" t="s">
         <v>44</v>
       </c>
@@ -1320,7 +1338,7 @@
       <c r="I14" s="38"/>
       <c r="J14" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="31" t="s">
         <v>52</v>
       </c>
@@ -1348,7 +1366,7 @@
       <c r="I15" s="38"/>
       <c r="J15" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="31" t="s">
         <v>39</v>
       </c>
@@ -1374,11 +1392,11 @@
         <v>41.86</v>
       </c>
       <c r="I16" s="38"/>
-      <c r="J16" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="J16" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="31" t="s">
         <v>64</v>
       </c>
@@ -1403,12 +1421,12 @@
       <c r="H17" s="35">
         <v>42.43</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="I17" s="40"/>
+      <c r="J17" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="31" t="s">
         <v>40</v>
       </c>
@@ -1436,7 +1454,7 @@
       <c r="I18" s="38"/>
       <c r="J18" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="31" t="s">
         <v>38</v>
       </c>
@@ -1462,11 +1480,11 @@
         <v>42.99</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="31" t="s">
         <v>57</v>
       </c>
@@ -1492,11 +1510,11 @@
         <v>43.69</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="31" t="s">
         <v>68</v>
       </c>
@@ -1524,7 +1542,7 @@
       <c r="I21" s="38"/>
       <c r="J21" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="31" t="s">
         <v>8</v>
       </c>
@@ -1552,7 +1570,7 @@
       <c r="I22" s="38"/>
       <c r="J22" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="31" t="s">
         <v>45</v>
       </c>
@@ -2309,28 +2327,28 @@
       <c r="J49" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="43" t="s">
+      <c r="B50" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="44">
+      <c r="E50" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="45">
         <v>0.52</v>
       </c>
-      <c r="H50" s="45">
+      <c r="H50" s="46">
         <v>64.06</v>
       </c>
       <c r="I50" s="29"/>
